--- a/matury/xxxxpr_operon/zad6.xlsx
+++ b/matury/xxxxpr_operon/zad6.xlsx
@@ -8,24 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\dev\other\informatyka-frycz\matury\xxxxpr_operon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54493EE2-8CC7-4BFA-BC18-2153D4677015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AAE957-776C-4472-9153-04B3A92D025C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2325" windowWidth="20730" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="3015" windowWidth="20730" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$K$2:$K$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$L$2:$L$61</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$K$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$K$2:$K$61</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$61</definedName>
     <definedName name="rajd" localSheetId="0">Sheet1!$A$1:$B$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -130,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="175" formatCode="[$-415]d\ mmm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="[$-415]d\ mmm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,7 +177,7 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -195,14 +185,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2268,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2332,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C2">
-        <f>WEEKDAY(A2,2 )</f>
+        <f t="shared" ref="C2:C33" si="0">WEEKDAY(A2,2 )</f>
         <v>2</v>
       </c>
       <c r="D2" s="2">
@@ -2395,15 +2385,15 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C3">
-        <f>WEEKDAY(A3,2 )</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D61" si="0">IF(OR(C3=6, C3=7), TIME(7, 0, 0)-B3, TIME(10, 0, 0)-B3)</f>
+        <f t="shared" ref="D3:D61" si="1">IF(OR(C3=6, C3=7), TIME(7, 0, 0)-B3, TIME(10, 0, 0)-B3)</f>
         <v>0.36458333333333337</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E61" si="1">MOD(ROW(A3)-2, 3)</f>
+        <f t="shared" ref="E3:E61" si="2">MOD(ROW(A3)-2, 3)</f>
         <v>1</v>
       </c>
       <c r="F3" s="3">
@@ -2411,15 +2401,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G61" si="2">IF(E3=2, 0.04, 0)</f>
+        <f t="shared" ref="G3:G61" si="3">IF(E3=2, 0.04, 0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H61" si="3">IF(OR(C3=6, C3=7), 0.01, 0)</f>
+        <f t="shared" ref="H3:H61" si="4">IF(OR(C3=6, C3=7), 0.01, 0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I62" si="4">TIME(5,0,0)*F3</f>
+        <f t="shared" ref="I3:I61" si="5">TIME(5,0,0)*F3</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="J3" s="2">
@@ -2427,19 +2417,19 @@
         <v>0.15625000000000003</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K61" si="5">30*HOUR(I3) + (30/60)*MINUTE(I3)</f>
+        <f t="shared" ref="K3:K61" si="6">30*HOUR(I3) + (30/60)*MINUTE(I3)</f>
         <v>150</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L61" si="6">19*HOUR(J3) + (19/60)*MINUTE(J3)</f>
+        <f t="shared" ref="L3:L61" si="7">19*HOUR(J3) + (19/60)*MINUTE(J3)</f>
         <v>71.25</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M61" si="7">K3+L3</f>
+        <f t="shared" ref="M3:M61" si="8">K3+L3</f>
         <v>221.25</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N63" si="8">IF(L3&gt;K3, "tak", "")</f>
+        <f t="shared" ref="N3:N61" si="9">IF(L3&gt;K3, "tak", "")</f>
         <v/>
       </c>
     </row>
@@ -2451,51 +2441,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C4">
-        <f>WEEKDAY(A4,2 )</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36458333333333337</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F61" si="9">F3-G3+H3</f>
+        <f t="shared" ref="F4:F61" si="10">F3-G3+H3</f>
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J3:J61" si="10">D4-I4</f>
+        <f t="shared" ref="J4:J61" si="11">D4-I4</f>
         <v>0.15625000000000003</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71.25</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>221.25</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2507,51 +2497,51 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C5">
-        <f>WEEKDAY(A5,2 )</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="11"/>
+        <v>0.13333333333333336</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="7"/>
+        <v>60.8</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="8"/>
+        <v>204.8</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="9"/>
-        <v>0.96</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="10"/>
-        <v>0.13333333333333336</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="5"/>
-        <v>144</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="6"/>
-        <v>60.8</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="7"/>
-        <v>204.8</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2563,51 +2553,51 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C6">
-        <f>WEEKDAY(A6,2 )</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F6" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="11"/>
+        <v>8.3333333333333592E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="7"/>
+        <v>3.8</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="8"/>
+        <v>147.80000000000001</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="9"/>
-        <v>0.96</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="10"/>
-        <v>8.3333333333333592E-3</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="5"/>
-        <v>144</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="6"/>
-        <v>3.8</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="7"/>
-        <v>147.80000000000001</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2619,51 +2609,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C7">
-        <f>WEEKDAY(A7,2 )</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F7" s="3">
+        <f t="shared" si="10"/>
+        <v>0.97</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20208333333333334</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="11"/>
+        <v>2.7083333333333348E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="6"/>
+        <v>145.5</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="7"/>
+        <v>12.35</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="8"/>
+        <v>157.85</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="9"/>
-        <v>0.97</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20208333333333334</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="10"/>
-        <v>2.7083333333333348E-2</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="5"/>
-        <v>145.5</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="6"/>
-        <v>12.35</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="7"/>
-        <v>157.85</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2675,51 +2665,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C8">
-        <f>WEEKDAY(A8,2 )</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="11"/>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="7"/>
+        <v>72.2</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="8"/>
+        <v>213.2</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="9"/>
-        <v>0.94</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19583333333333333</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="10"/>
-        <v>0.15833333333333335</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="6"/>
-        <v>72.2</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="7"/>
-        <v>213.2</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2731,51 +2721,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C9">
-        <f>WEEKDAY(A9,2 )</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F9" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="11"/>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="7"/>
+        <v>72.2</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="8"/>
+        <v>213.2</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="9"/>
-        <v>0.94</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19583333333333333</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="10"/>
-        <v>0.15833333333333335</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="6"/>
-        <v>72.2</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="7"/>
-        <v>213.2</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2787,51 +2777,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C10">
-        <f>WEEKDAY(A10,2 )</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F10" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="11"/>
+        <v>0.15833333333333335</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="7"/>
+        <v>72.2</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="8"/>
+        <v>213.2</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="9"/>
-        <v>0.94</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19583333333333333</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="10"/>
-        <v>0.15833333333333335</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="6"/>
-        <v>72.2</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="7"/>
-        <v>213.2</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2843,51 +2833,51 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C11">
-        <f>WEEKDAY(A11,2 )</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="3">
+        <f t="shared" si="10"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1875</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="7"/>
+        <v>85.5</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="8"/>
+        <v>220.5</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="9"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1875</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="10"/>
-        <v>0.1875</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="6"/>
-        <v>85.5</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="7"/>
-        <v>220.5</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2899,51 +2889,51 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C12">
-        <f>WEEKDAY(A12,2 )</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" si="10"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1875</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="7"/>
+        <v>85.5</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="8"/>
+        <v>220.5</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="9"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1875</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="10"/>
-        <v>0.1875</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="6"/>
-        <v>85.5</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="7"/>
-        <v>220.5</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2955,51 +2945,51 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C13">
-        <f>WEEKDAY(A13,2 )</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F13" s="3">
+        <f t="shared" si="10"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="7"/>
+        <v>28.5</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="8"/>
+        <v>163.5</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="9"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1875</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="10"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="6"/>
-        <v>28.5</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="7"/>
-        <v>163.5</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3011,51 +3001,51 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C14">
-        <f>WEEKDAY(A14,2 )</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="10"/>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="11"/>
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="6"/>
+        <v>130.5</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="7"/>
+        <v>31.35</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="8"/>
+        <v>161.85</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="9"/>
-        <v>0.86999999999999988</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18124999999999999</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="10"/>
-        <v>6.8750000000000006E-2</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="5"/>
-        <v>130.5</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="6"/>
-        <v>31.35</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="7"/>
-        <v>161.85</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3067,51 +3057,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C15">
-        <f>WEEKDAY(A15,2 )</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="10"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="11"/>
+        <v>0.17777777777777784</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="7"/>
+        <v>81.066666666666663</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="8"/>
+        <v>213.06666666666666</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="9"/>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="10"/>
-        <v>0.17777777777777784</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="5"/>
-        <v>132</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="6"/>
-        <v>81.066666666666663</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="7"/>
-        <v>213.06666666666666</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3123,51 +3113,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C16">
-        <f>WEEKDAY(A16,2 )</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="10"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.17777777777777784</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="7"/>
+        <v>81.066666666666663</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="8"/>
+        <v>213.06666666666666</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="9"/>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="10"/>
-        <v>0.17777777777777784</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="5"/>
-        <v>132</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="6"/>
-        <v>81.066666666666663</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="7"/>
-        <v>213.06666666666666</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3179,51 +3169,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C17">
-        <f>WEEKDAY(A17,2 )</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <f t="shared" si="10"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="11"/>
+        <v>0.18611111111111117</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="7"/>
+        <v>84.866666666666674</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="8"/>
+        <v>210.86666666666667</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="9"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="10"/>
-        <v>0.18611111111111117</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="L17" s="4">
-        <f t="shared" si="6"/>
-        <v>84.866666666666674</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="7"/>
-        <v>210.86666666666667</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3235,51 +3225,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C18">
-        <f>WEEKDAY(A18,2 )</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F18" s="3">
+        <f t="shared" si="10"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="11"/>
+        <v>0.18611111111111117</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="7"/>
+        <v>84.866666666666674</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="8"/>
+        <v>210.86666666666667</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="9"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="10"/>
-        <v>0.18611111111111117</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="6"/>
-        <v>84.866666666666674</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="7"/>
-        <v>210.86666666666667</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3291,51 +3281,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C19">
-        <f>WEEKDAY(A19,2 )</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="10"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1791666666666667</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="7"/>
+        <v>81.7</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="8"/>
+        <v>207.7</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="9"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="10"/>
-        <v>0.1791666666666667</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="6"/>
-        <v>81.7</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="7"/>
-        <v>207.7</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3347,51 +3337,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C20">
-        <f>WEEKDAY(A20,2 )</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <f t="shared" si="10"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="7"/>
+        <v>28.5</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="8"/>
+        <v>148.5</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="9"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="4"/>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="10"/>
-        <v>6.2500000000000056E-2</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="6"/>
-        <v>28.5</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="7"/>
-        <v>148.5</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3403,51 +3393,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C21">
-        <f>WEEKDAY(A21,2 )</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F21" s="3">
+        <f t="shared" si="10"/>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16874999999999998</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="11"/>
+        <v>6.0416666666666702E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="6"/>
+        <v>121.5</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="7"/>
+        <v>27.549999999999997</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="8"/>
+        <v>149.05000000000001</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="9"/>
-        <v>0.80999999999999983</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="4"/>
-        <v>0.16874999999999998</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="10"/>
-        <v>6.0416666666666702E-2</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="5"/>
-        <v>121.5</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="6"/>
-        <v>27.549999999999997</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="7"/>
-        <v>149.05000000000001</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3459,51 +3449,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C22">
-        <f>WEEKDAY(A22,2 )</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F22" s="3">
+        <f t="shared" si="10"/>
+        <v>0.81999999999999984</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="11"/>
+        <v>0.19027777777777785</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="7"/>
+        <v>86.766666666666666</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="8"/>
+        <v>209.76666666666665</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="9"/>
-        <v>0.81999999999999984</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17083333333333331</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="10"/>
-        <v>0.19027777777777785</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="5"/>
-        <v>123</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="6"/>
-        <v>86.766666666666666</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" si="7"/>
-        <v>209.76666666666665</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3515,51 +3505,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C23">
-        <f>WEEKDAY(A23,2 )</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <f t="shared" si="10"/>
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="11"/>
+        <v>0.19861111111111118</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="7"/>
+        <v>90.566666666666663</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="8"/>
+        <v>207.56666666666666</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="9"/>
-        <v>0.7799999999999998</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="4"/>
-        <v>0.16249999999999998</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="10"/>
-        <v>0.19861111111111118</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="5"/>
-        <v>117</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="6"/>
-        <v>90.566666666666663</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="7"/>
-        <v>207.56666666666666</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3571,51 +3561,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C24">
-        <f>WEEKDAY(A24,2 )</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F24" s="3">
+        <f t="shared" si="10"/>
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="11"/>
+        <v>0.19861111111111118</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="7"/>
+        <v>90.566666666666663</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="8"/>
+        <v>207.56666666666666</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="9"/>
-        <v>0.7799999999999998</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="4"/>
-        <v>0.16249999999999998</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="10"/>
-        <v>0.19861111111111118</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="5"/>
-        <v>117</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="6"/>
-        <v>90.566666666666663</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="7"/>
-        <v>207.56666666666666</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3627,51 +3617,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C25">
-        <f>WEEKDAY(A25,2 )</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36458333333333337</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F25" s="3">
+        <f t="shared" si="10"/>
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="11"/>
+        <v>0.20208333333333339</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="7"/>
+        <v>92.15</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="8"/>
+        <v>209.15</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="9"/>
-        <v>0.7799999999999998</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="4"/>
-        <v>0.16249999999999998</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="10"/>
-        <v>0.20208333333333339</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="5"/>
-        <v>117</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" si="6"/>
-        <v>92.15</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="7"/>
-        <v>209.15</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3683,51 +3673,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C26">
-        <f>WEEKDAY(A26,2 )</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36458333333333337</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <f t="shared" si="10"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15416666666666662</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21041666666666675</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="7"/>
+        <v>95.95</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="8"/>
+        <v>206.95</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="9"/>
-        <v>0.73999999999999977</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="4"/>
-        <v>0.15416666666666662</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21041666666666675</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="5"/>
-        <v>111</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="6"/>
-        <v>95.95</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="7"/>
-        <v>206.95</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3739,51 +3729,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C27">
-        <f>WEEKDAY(A27,2 )</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23958333333333334</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F27" s="3">
+        <f t="shared" si="10"/>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15416666666666662</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="11"/>
+        <v>8.5416666666666724E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="7"/>
+        <v>38.950000000000003</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="8"/>
+        <v>149.94999999999999</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="9"/>
-        <v>0.73999999999999977</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="4"/>
-        <v>0.15416666666666662</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="10"/>
-        <v>8.5416666666666724E-2</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="5"/>
-        <v>111</v>
-      </c>
-      <c r="L27" s="4">
-        <f t="shared" si="6"/>
-        <v>38.950000000000003</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" si="7"/>
-        <v>149.94999999999999</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3795,51 +3785,51 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28">
-        <f>WEEKDAY(A28,2 )</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F28" s="3">
+        <f t="shared" si="10"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15624999999999997</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="11"/>
+        <v>5.2083333333333398E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="6"/>
+        <v>112.5</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="7"/>
+        <v>23.75</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="8"/>
+        <v>136.25</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="9"/>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="4"/>
-        <v>0.15624999999999997</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="10"/>
-        <v>5.2083333333333398E-2</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="5"/>
-        <v>112.5</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="6"/>
-        <v>23.75</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="7"/>
-        <v>136.25</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3851,51 +3841,51 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C29">
-        <f>WEEKDAY(A29,2 )</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <f t="shared" si="10"/>
+        <v>0.71999999999999975</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1833333333333334</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="7"/>
+        <v>83.6</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="8"/>
+        <v>191.6</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="9"/>
-        <v>0.71999999999999975</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14999999999999997</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="10"/>
-        <v>0.1833333333333334</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="5"/>
-        <v>108</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" si="6"/>
-        <v>83.6</v>
-      </c>
-      <c r="M29" s="4">
-        <f t="shared" si="7"/>
-        <v>191.6</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3907,51 +3897,51 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C30">
-        <f>WEEKDAY(A30,2 )</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F30" s="3">
+        <f t="shared" si="10"/>
+        <v>0.71999999999999975</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1833333333333334</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="7"/>
+        <v>83.6</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="8"/>
+        <v>191.6</v>
+      </c>
+      <c r="N30" t="str">
         <f t="shared" si="9"/>
-        <v>0.71999999999999975</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14999999999999997</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="10"/>
-        <v>0.1833333333333334</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="5"/>
-        <v>108</v>
-      </c>
-      <c r="L30" s="4">
-        <f t="shared" si="6"/>
-        <v>83.6</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" si="7"/>
-        <v>191.6</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3963,51 +3953,51 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C31">
-        <f>WEEKDAY(A31,2 )</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F31" s="3">
+        <f t="shared" si="10"/>
+        <v>0.71999999999999975</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1833333333333334</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="7"/>
+        <v>83.6</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="8"/>
+        <v>191.6</v>
+      </c>
+      <c r="N31" t="str">
         <f t="shared" si="9"/>
-        <v>0.71999999999999975</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14999999999999997</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="10"/>
-        <v>0.1833333333333334</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="5"/>
-        <v>108</v>
-      </c>
-      <c r="L31" s="4">
-        <f t="shared" si="6"/>
-        <v>83.6</v>
-      </c>
-      <c r="M31" s="4">
-        <f t="shared" si="7"/>
-        <v>191.6</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4019,51 +4009,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C32">
-        <f>WEEKDAY(A32,2 )</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <f t="shared" si="10"/>
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14166666666666661</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21944444444444455</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="7"/>
+        <v>100.06666666666666</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="8"/>
+        <v>202.06666666666666</v>
+      </c>
+      <c r="N32" t="str">
         <f t="shared" si="9"/>
-        <v>0.67999999999999972</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14166666666666661</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21944444444444455</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="5"/>
-        <v>102</v>
-      </c>
-      <c r="L32" s="4">
-        <f t="shared" si="6"/>
-        <v>100.06666666666666</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" si="7"/>
-        <v>202.06666666666666</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4075,51 +4065,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C33">
-        <f>WEEKDAY(A33,2 )</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36111111111111116</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="10"/>
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14166666666666661</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21944444444444455</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="7"/>
+        <v>100.06666666666666</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="8"/>
+        <v>202.06666666666666</v>
+      </c>
+      <c r="N33" t="str">
         <f t="shared" si="9"/>
-        <v>0.67999999999999972</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14166666666666661</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21944444444444455</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="5"/>
-        <v>102</v>
-      </c>
-      <c r="L33" s="4">
-        <f t="shared" si="6"/>
-        <v>100.06666666666666</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" si="7"/>
-        <v>202.06666666666666</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4131,51 +4121,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C34">
-        <f>WEEKDAY(A34,2 )</f>
+        <f t="shared" ref="C34:C61" si="12">WEEKDAY(A34,2 )</f>
         <v>6</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23611111111111113</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14166666666666661</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="11"/>
+        <v>9.4444444444444525E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="7"/>
+        <v>43.066666666666663</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="8"/>
+        <v>145.06666666666666</v>
+      </c>
+      <c r="N34" t="str">
         <f t="shared" si="9"/>
-        <v>0.67999999999999972</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14166666666666661</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="10"/>
-        <v>9.4444444444444525E-2</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="5"/>
-        <v>102</v>
-      </c>
-      <c r="L34" s="4">
-        <f t="shared" si="6"/>
-        <v>43.066666666666663</v>
-      </c>
-      <c r="M34" s="4">
-        <f t="shared" si="7"/>
-        <v>145.06666666666666</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4187,51 +4177,51 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C35">
-        <f>WEEKDAY(A35,2 )</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23611111111111113</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" si="10"/>
+        <v>0.64999999999999969</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1354166666666666</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="11"/>
+        <v>0.10069444444444453</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="6"/>
+        <v>97.5</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="7"/>
+        <v>45.916666666666664</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="8"/>
+        <v>143.41666666666666</v>
+      </c>
+      <c r="N35" t="str">
         <f t="shared" si="9"/>
-        <v>0.64999999999999969</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1354166666666666</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="10"/>
-        <v>0.10069444444444453</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" si="5"/>
-        <v>97.5</v>
-      </c>
-      <c r="L35" s="4">
-        <f t="shared" si="6"/>
-        <v>45.916666666666664</v>
-      </c>
-      <c r="M35" s="4">
-        <f t="shared" si="7"/>
-        <v>143.41666666666666</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4243,51 +4233,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C36">
-        <f>WEEKDAY(A36,2 )</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" si="10"/>
+        <v>0.6599999999999997</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13749999999999996</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21666666666666673</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="7"/>
+        <v>98.8</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="8"/>
+        <v>197.8</v>
+      </c>
+      <c r="N36" t="str">
         <f t="shared" si="9"/>
-        <v>0.6599999999999997</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="4"/>
-        <v>0.13749999999999996</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21666666666666673</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="L36" s="4">
-        <f t="shared" si="6"/>
-        <v>98.8</v>
-      </c>
-      <c r="M36" s="4">
-        <f t="shared" si="7"/>
-        <v>197.8</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4299,51 +4289,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C37">
-        <f>WEEKDAY(A37,2 )</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" si="10"/>
+        <v>0.6599999999999997</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13749999999999996</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21666666666666673</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="7"/>
+        <v>98.8</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="8"/>
+        <v>197.8</v>
+      </c>
+      <c r="N37" t="str">
         <f t="shared" si="9"/>
-        <v>0.6599999999999997</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="4"/>
-        <v>0.13749999999999996</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21666666666666673</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="L37" s="4">
-        <f t="shared" si="6"/>
-        <v>98.8</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" si="7"/>
-        <v>197.8</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4355,51 +4345,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C38">
-        <f>WEEKDAY(A38,2 )</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" si="10"/>
+        <v>0.61999999999999966</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1291666666666666</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="11"/>
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="7"/>
+        <v>102.6</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="8"/>
+        <v>195.6</v>
+      </c>
+      <c r="N38" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>0.61999999999999966</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1291666666666666</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="10"/>
-        <v>0.22500000000000009</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="L38" s="4">
-        <f t="shared" si="6"/>
-        <v>102.6</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" si="7"/>
-        <v>195.6</v>
-      </c>
-      <c r="N38" s="11" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -4411,51 +4401,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C39">
-        <f>WEEKDAY(A39,2 )</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F39" s="3">
+        <f t="shared" si="10"/>
+        <v>0.61999999999999966</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1291666666666666</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="11"/>
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="7"/>
+        <v>102.6</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="8"/>
+        <v>195.6</v>
+      </c>
+      <c r="N39" t="str">
         <f t="shared" si="9"/>
-        <v>0.61999999999999966</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1291666666666666</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="10"/>
-        <v>0.22500000000000009</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="L39" s="4">
-        <f t="shared" si="6"/>
-        <v>102.6</v>
-      </c>
-      <c r="M39" s="4">
-        <f t="shared" si="7"/>
-        <v>195.6</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -4467,51 +4457,51 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="C40">
-        <f>WEEKDAY(A40,2 )</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34375</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F40" s="3">
+        <f t="shared" si="10"/>
+        <v>0.61999999999999966</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1291666666666666</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="11"/>
+        <v>0.2145833333333334</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="7"/>
+        <v>97.85</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="8"/>
+        <v>190.85</v>
+      </c>
+      <c r="N40" t="str">
         <f t="shared" si="9"/>
-        <v>0.61999999999999966</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1291666666666666</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="10"/>
-        <v>0.2145833333333334</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="L40" s="4">
-        <f t="shared" si="6"/>
-        <v>97.85</v>
-      </c>
-      <c r="M40" s="4">
-        <f t="shared" si="7"/>
-        <v>190.85</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -4523,51 +4513,51 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="C41">
-        <f>WEEKDAY(A41,2 )</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21875</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <f t="shared" si="10"/>
+        <v>0.57999999999999963</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="5"/>
+        <v>0.12083333333333326</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="11"/>
+        <v>9.7916666666666735E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="7"/>
+        <v>44.65</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="8"/>
+        <v>131.65</v>
+      </c>
+      <c r="N41" t="str">
         <f t="shared" si="9"/>
-        <v>0.57999999999999963</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="4"/>
-        <v>0.12083333333333326</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="10"/>
-        <v>9.7916666666666735E-2</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="L41" s="4">
-        <f t="shared" si="6"/>
-        <v>44.65</v>
-      </c>
-      <c r="M41" s="4">
-        <f t="shared" si="7"/>
-        <v>131.65</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4579,51 +4569,51 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="C42">
-        <f>WEEKDAY(A42,2 )</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21875</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F42" s="3">
+        <f t="shared" si="10"/>
+        <v>0.58999999999999964</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="5"/>
+        <v>0.12291666666666659</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="11"/>
+        <v>9.5833333333333409E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="6"/>
+        <v>88.5</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="7"/>
+        <v>43.7</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="8"/>
+        <v>132.19999999999999</v>
+      </c>
+      <c r="N42" t="str">
         <f t="shared" si="9"/>
-        <v>0.58999999999999964</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" si="4"/>
-        <v>0.12291666666666659</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" si="10"/>
-        <v>9.5833333333333409E-2</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="5"/>
-        <v>88.5</v>
-      </c>
-      <c r="L42" s="4">
-        <f t="shared" si="6"/>
-        <v>43.7</v>
-      </c>
-      <c r="M42" s="4">
-        <f t="shared" si="7"/>
-        <v>132.19999999999999</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4635,51 +4625,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C43">
-        <f>WEEKDAY(A43,2 )</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36458333333333337</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F43" s="3">
+        <f t="shared" si="10"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="5"/>
+        <v>0.12499999999999993</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="11"/>
+        <v>0.23958333333333343</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="7"/>
+        <v>109.25</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="8"/>
+        <v>199.25</v>
+      </c>
+      <c r="N43" t="str">
         <f t="shared" si="9"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="4"/>
-        <v>0.12499999999999993</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="10"/>
-        <v>0.23958333333333343</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="L43" s="4">
-        <f t="shared" si="6"/>
-        <v>109.25</v>
-      </c>
-      <c r="M43" s="4">
-        <f t="shared" si="7"/>
-        <v>199.25</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -4691,51 +4681,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C44">
-        <f>WEEKDAY(A44,2 )</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36458333333333337</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <f t="shared" si="10"/>
+        <v>0.55999999999999961</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11666666666666659</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="11"/>
+        <v>0.24791666666666679</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="7"/>
+        <v>113.05</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="8"/>
+        <v>197.05</v>
+      </c>
+      <c r="N44" t="str">
         <f t="shared" si="9"/>
-        <v>0.55999999999999961</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="4"/>
-        <v>0.11666666666666659</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="10"/>
-        <v>0.24791666666666679</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="L44" s="4">
-        <f t="shared" si="6"/>
-        <v>113.05</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" si="7"/>
-        <v>197.05</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -4747,51 +4737,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C45">
-        <f>WEEKDAY(A45,2 )</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36458333333333337</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F45" s="3">
+        <f t="shared" si="10"/>
+        <v>0.55999999999999961</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11666666666666659</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="11"/>
+        <v>0.24791666666666679</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="7"/>
+        <v>113.05</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="8"/>
+        <v>197.05</v>
+      </c>
+      <c r="N45" t="str">
         <f t="shared" si="9"/>
-        <v>0.55999999999999961</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="4"/>
-        <v>0.11666666666666659</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" si="10"/>
-        <v>0.24791666666666679</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="L45" s="4">
-        <f t="shared" si="6"/>
-        <v>113.05</v>
-      </c>
-      <c r="M45" s="4">
-        <f t="shared" si="7"/>
-        <v>197.05</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -4803,51 +4793,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C46">
-        <f>WEEKDAY(A46,2 )</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36458333333333337</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F46" s="3">
+        <f t="shared" si="10"/>
+        <v>0.55999999999999961</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11666666666666659</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="11"/>
+        <v>0.24791666666666679</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="7"/>
+        <v>113.05</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="8"/>
+        <v>197.05</v>
+      </c>
+      <c r="N46" t="str">
         <f t="shared" si="9"/>
-        <v>0.55999999999999961</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" si="4"/>
-        <v>0.11666666666666659</v>
-      </c>
-      <c r="J46" s="2">
-        <f t="shared" si="10"/>
-        <v>0.24791666666666679</v>
-      </c>
-      <c r="K46" s="4">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="L46" s="4">
-        <f t="shared" si="6"/>
-        <v>113.05</v>
-      </c>
-      <c r="M46" s="4">
-        <f t="shared" si="7"/>
-        <v>197.05</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -4859,31 +4849,31 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C47">
-        <f>WEEKDAY(A47,2 )</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36458333333333337</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.51999999999999957</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10833333333333325</v>
       </c>
       <c r="J47" s="2">
@@ -4891,19 +4881,19 @@
         <v>0.25625000000000009</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116.85</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>194.85</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>tak</v>
       </c>
     </row>
@@ -4915,51 +4905,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C48">
-        <f>WEEKDAY(A48,2 )</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23958333333333334</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F48" s="3">
+        <f t="shared" si="10"/>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10833333333333325</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="11"/>
+        <v>0.13125000000000009</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="7"/>
+        <v>59.85</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="8"/>
+        <v>137.85</v>
+      </c>
+      <c r="N48" t="str">
         <f t="shared" si="9"/>
-        <v>0.51999999999999957</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I48" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10833333333333325</v>
-      </c>
-      <c r="J48" s="2">
-        <f t="shared" si="10"/>
-        <v>0.13125000000000009</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="L48" s="4">
-        <f t="shared" si="6"/>
-        <v>59.85</v>
-      </c>
-      <c r="M48" s="4">
-        <f t="shared" si="7"/>
-        <v>137.85</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4971,51 +4961,51 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C49">
-        <f>WEEKDAY(A49,2 )</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23958333333333334</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F49" s="3">
+        <f t="shared" si="10"/>
+        <v>0.52999999999999958</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11041666666666658</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="11"/>
+        <v>0.12916666666666676</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="6"/>
+        <v>79.5</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="7"/>
+        <v>58.9</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="8"/>
+        <v>138.4</v>
+      </c>
+      <c r="N49" t="str">
         <f t="shared" si="9"/>
-        <v>0.52999999999999958</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="4"/>
-        <v>0.11041666666666658</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="10"/>
-        <v>0.12916666666666676</v>
-      </c>
-      <c r="K49" s="4">
-        <f t="shared" si="5"/>
-        <v>79.5</v>
-      </c>
-      <c r="L49" s="4">
-        <f t="shared" si="6"/>
-        <v>58.9</v>
-      </c>
-      <c r="M49" s="4">
-        <f t="shared" si="7"/>
-        <v>138.4</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5027,51 +5017,51 @@
         <v>9.375E-2</v>
       </c>
       <c r="C50">
-        <f>WEEKDAY(A50,2 )</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32291666666666669</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F50" s="3">
+        <f t="shared" si="10"/>
+        <v>0.49999999999999961</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10416666666666659</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21875000000000011</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="7"/>
+        <v>99.75</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="8"/>
+        <v>174.75</v>
+      </c>
+      <c r="N50" t="str">
         <f t="shared" si="9"/>
-        <v>0.49999999999999961</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10416666666666659</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21875000000000011</v>
-      </c>
-      <c r="K50" s="4">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="L50" s="4">
-        <f t="shared" si="6"/>
-        <v>99.75</v>
-      </c>
-      <c r="M50" s="4">
-        <f t="shared" si="7"/>
-        <v>174.75</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5083,51 +5073,51 @@
         <v>9.375E-2</v>
       </c>
       <c r="C51">
-        <f>WEEKDAY(A51,2 )</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32291666666666669</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F51" s="3">
+        <f t="shared" si="10"/>
+        <v>0.49999999999999961</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10416666666666659</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21875000000000011</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="7"/>
+        <v>99.75</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="8"/>
+        <v>174.75</v>
+      </c>
+      <c r="N51" t="str">
         <f t="shared" si="9"/>
-        <v>0.49999999999999961</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10416666666666659</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21875000000000011</v>
-      </c>
-      <c r="K51" s="4">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="L51" s="4">
-        <f t="shared" si="6"/>
-        <v>99.75</v>
-      </c>
-      <c r="M51" s="4">
-        <f t="shared" si="7"/>
-        <v>174.75</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5139,51 +5129,51 @@
         <v>9.375E-2</v>
       </c>
       <c r="C52">
-        <f>WEEKDAY(A52,2 )</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32291666666666669</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F52" s="3">
+        <f t="shared" si="10"/>
+        <v>0.49999999999999961</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10416666666666659</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21875000000000011</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" si="7"/>
+        <v>99.75</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="8"/>
+        <v>174.75</v>
+      </c>
+      <c r="N52" t="str">
         <f t="shared" si="9"/>
-        <v>0.49999999999999961</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10416666666666659</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21875000000000011</v>
-      </c>
-      <c r="K52" s="4">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="L52" s="4">
-        <f t="shared" si="6"/>
-        <v>99.75</v>
-      </c>
-      <c r="M52" s="4">
-        <f t="shared" si="7"/>
-        <v>174.75</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5195,51 +5185,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C53">
-        <f>WEEKDAY(A53,2 )</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F53" s="3">
+        <f t="shared" si="10"/>
+        <v>0.45999999999999963</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="5"/>
+        <v>9.5833333333333257E-2</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25833333333333341</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="7"/>
+        <v>117.8</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="8"/>
+        <v>186.8</v>
+      </c>
+      <c r="N53" t="str">
         <f t="shared" si="9"/>
-        <v>0.45999999999999963</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="4"/>
-        <v>9.5833333333333257E-2</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="10"/>
-        <v>0.25833333333333341</v>
-      </c>
-      <c r="K53" s="4">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="L53" s="4">
-        <f t="shared" si="6"/>
-        <v>117.8</v>
-      </c>
-      <c r="M53" s="4">
-        <f t="shared" si="7"/>
-        <v>186.8</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5251,51 +5241,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C54">
-        <f>WEEKDAY(A54,2 )</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.45999999999999963</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="5"/>
+        <v>9.5833333333333257E-2</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25833333333333341</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="7"/>
+        <v>117.8</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="8"/>
+        <v>186.8</v>
+      </c>
+      <c r="N54" t="str">
         <f t="shared" si="9"/>
-        <v>0.45999999999999963</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <f t="shared" si="4"/>
-        <v>9.5833333333333257E-2</v>
-      </c>
-      <c r="J54" s="2">
-        <f t="shared" si="10"/>
-        <v>0.25833333333333341</v>
-      </c>
-      <c r="K54" s="4">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="L54" s="4">
-        <f t="shared" si="6"/>
-        <v>117.8</v>
-      </c>
-      <c r="M54" s="4">
-        <f t="shared" si="7"/>
-        <v>186.8</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5307,51 +5297,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C55">
-        <f>WEEKDAY(A55,2 )</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F55" s="3">
+        <f t="shared" si="10"/>
+        <v>0.45999999999999963</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="5"/>
+        <v>9.5833333333333257E-2</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="11"/>
+        <v>0.13333333333333341</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" si="7"/>
+        <v>60.8</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="8"/>
+        <v>129.80000000000001</v>
+      </c>
+      <c r="N55" t="str">
         <f t="shared" si="9"/>
-        <v>0.45999999999999963</v>
-      </c>
-      <c r="G55" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H55" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="4"/>
-        <v>9.5833333333333257E-2</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="10"/>
-        <v>0.13333333333333341</v>
-      </c>
-      <c r="K55" s="4">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="L55" s="4">
-        <f t="shared" si="6"/>
-        <v>60.8</v>
-      </c>
-      <c r="M55" s="4">
-        <f t="shared" si="7"/>
-        <v>129.80000000000001</v>
-      </c>
-      <c r="N55" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5363,51 +5353,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C56">
-        <f>WEEKDAY(A56,2 )</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22916666666666669</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F56" s="3">
+        <f t="shared" si="10"/>
+        <v>0.42999999999999966</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="5"/>
+        <v>8.9583333333333265E-2</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="11"/>
+        <v>0.13958333333333342</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="6"/>
+        <v>64.5</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="7"/>
+        <v>63.65</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="8"/>
+        <v>128.15</v>
+      </c>
+      <c r="N56" t="str">
         <f t="shared" si="9"/>
-        <v>0.42999999999999966</v>
-      </c>
-      <c r="G56" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" si="4"/>
-        <v>8.9583333333333265E-2</v>
-      </c>
-      <c r="J56" s="2">
-        <f t="shared" si="10"/>
-        <v>0.13958333333333342</v>
-      </c>
-      <c r="K56" s="4">
-        <f t="shared" si="5"/>
-        <v>64.5</v>
-      </c>
-      <c r="L56" s="4">
-        <f t="shared" si="6"/>
-        <v>63.65</v>
-      </c>
-      <c r="M56" s="4">
-        <f t="shared" si="7"/>
-        <v>128.15</v>
-      </c>
-      <c r="N56" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5419,51 +5409,51 @@
         <v>6.25E-2</v>
       </c>
       <c r="C57">
-        <f>WEEKDAY(A57,2 )</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F57" s="3">
+        <f t="shared" si="10"/>
+        <v>0.43999999999999967</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="5"/>
+        <v>9.1666666666666605E-2</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="11"/>
+        <v>0.26250000000000007</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="7"/>
+        <v>119.7</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="8"/>
+        <v>185.7</v>
+      </c>
+      <c r="N57" t="str">
         <f t="shared" si="9"/>
-        <v>0.43999999999999967</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" si="4"/>
-        <v>9.1666666666666605E-2</v>
-      </c>
-      <c r="J57" s="2">
-        <f t="shared" si="10"/>
-        <v>0.26250000000000007</v>
-      </c>
-      <c r="K57" s="4">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="L57" s="4">
-        <f t="shared" si="6"/>
-        <v>119.7</v>
-      </c>
-      <c r="M57" s="4">
-        <f t="shared" si="7"/>
-        <v>185.7</v>
-      </c>
-      <c r="N57" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5475,51 +5465,51 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="C58">
-        <f>WEEKDAY(A58,2 )</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3576388888888889</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F58" s="3">
+        <f t="shared" si="10"/>
+        <v>0.43999999999999967</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="5"/>
+        <v>9.1666666666666605E-2</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="11"/>
+        <v>0.26597222222222228</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="7"/>
+        <v>121.28333333333333</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="8"/>
+        <v>187.28333333333333</v>
+      </c>
+      <c r="N58" t="str">
         <f t="shared" si="9"/>
-        <v>0.43999999999999967</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="4"/>
-        <v>9.1666666666666605E-2</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" si="10"/>
-        <v>0.26597222222222228</v>
-      </c>
-      <c r="K58" s="4">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="L58" s="4">
-        <f t="shared" si="6"/>
-        <v>121.28333333333333</v>
-      </c>
-      <c r="M58" s="4">
-        <f t="shared" si="7"/>
-        <v>187.28333333333333</v>
-      </c>
-      <c r="N58" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5531,51 +5521,51 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="C59">
-        <f>WEEKDAY(A59,2 )</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3576388888888889</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999969</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333273E-2</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="11"/>
+        <v>0.27430555555555564</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="7"/>
+        <v>125.08333333333333</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="8"/>
+        <v>185.08333333333331</v>
+      </c>
+      <c r="N59" t="str">
         <f t="shared" si="9"/>
-        <v>0.39999999999999969</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333273E-2</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="10"/>
-        <v>0.27430555555555564</v>
-      </c>
-      <c r="K59" s="4">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L59" s="4">
-        <f t="shared" si="6"/>
-        <v>125.08333333333333</v>
-      </c>
-      <c r="M59" s="4">
-        <f t="shared" si="7"/>
-        <v>185.08333333333331</v>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5587,51 +5577,51 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="C60">
-        <f>WEEKDAY(A60,2 )</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3576388888888889</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F60" s="3">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999969</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333273E-2</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="11"/>
+        <v>0.27430555555555564</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="7"/>
+        <v>125.08333333333333</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="8"/>
+        <v>185.08333333333331</v>
+      </c>
+      <c r="N60" t="str">
         <f t="shared" si="9"/>
-        <v>0.39999999999999969</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333273E-2</v>
-      </c>
-      <c r="J60" s="2">
-        <f t="shared" si="10"/>
-        <v>0.27430555555555564</v>
-      </c>
-      <c r="K60" s="4">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L60" s="4">
-        <f t="shared" si="6"/>
-        <v>125.08333333333333</v>
-      </c>
-      <c r="M60" s="4">
-        <f t="shared" si="7"/>
-        <v>185.08333333333331</v>
-      </c>
-      <c r="N60" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
@@ -5643,51 +5633,51 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="C61">
-        <f>WEEKDAY(A61,2 )</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3576388888888889</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F61" s="3">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999969</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333273E-2</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="11"/>
+        <v>0.27430555555555564</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" si="7"/>
+        <v>125.08333333333333</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="8"/>
+        <v>185.08333333333331</v>
+      </c>
+      <c r="N61" t="str">
         <f t="shared" si="9"/>
-        <v>0.39999999999999969</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333273E-2</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" si="10"/>
-        <v>0.27430555555555564</v>
-      </c>
-      <c r="K61" s="4">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L61" s="4">
-        <f t="shared" si="6"/>
-        <v>125.08333333333333</v>
-      </c>
-      <c r="M61" s="4">
-        <f t="shared" si="7"/>
-        <v>185.08333333333331</v>
-      </c>
-      <c r="N61" t="str">
-        <f t="shared" si="8"/>
         <v>tak</v>
       </c>
     </row>
